--- a/core-parent/admin-core-dto/国家教育考生用户表.xlsx
+++ b/core-parent/admin-core-dto/国家教育考生用户表.xlsx
@@ -122,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,91 +435,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>13124565782</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>13124565782</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>13124565782</v>
       </c>
     </row>
